--- a/Features/all_features.xlsx
+++ b/Features/all_features.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sem-V\Mini Project-V\Music-Recommendation\Features\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riya\MiniProjectSem5\Music-Recommendation\Features\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D5E616-8BA9-4EF1-9B02-6A3309B18DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E48E6F9-C6A4-40E0-9FE1-0FA329A25A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2868" yWindow="1092" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2073,13 +2073,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N563"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N490" sqref="N490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
